--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF0704F-7A7F-415D-8181-5F3B9D1E5B35}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DC5DD5-01B6-4D5D-AF87-B8F0E4510DB2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A967B6E2-7F77-4690-A937-D71849A1AE83}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>State-to-State Consulting</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -94,7 +97,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +116,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEF1E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -292,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
@@ -345,7 +354,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -373,11 +381,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -388,6 +393,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -408,6 +418,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFEF1E6"/>
       <color rgb="FFD9D9D9"/>
       <color rgb="FFE1A16C"/>
       <color rgb="FFFDC689"/>
@@ -721,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80A0C24-7431-430F-9021-A877E1BD9DCC}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -733,47 +744,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="str">
+      <c r="A3" s="35" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="24"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -782,16 +795,18 @@
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="25"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="25"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
@@ -800,7 +815,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="25"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
@@ -809,7 +824,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="25"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
@@ -818,7 +833,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="25"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
@@ -827,7 +842,7 @@
       <c r="D10" s="11"/>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="25"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
@@ -836,7 +851,7 @@
       <c r="D11" s="12"/>
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="25"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
@@ -845,7 +860,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="25"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
@@ -854,65 +869,71 @@
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="25"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="26"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="24"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
@@ -921,7 +942,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="25"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
@@ -930,7 +951,7 @@
       <c r="D21" s="10"/>
       <c r="E21" s="3"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="25"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -939,7 +960,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="3"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="25"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
@@ -948,7 +969,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="25"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
@@ -957,62 +978,72 @@
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="25"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="26"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="str">
+      <c r="A29" s="35" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="24"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
@@ -1021,7 +1052,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="25"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
@@ -1030,7 +1061,7 @@
       <c r="D32" s="10"/>
       <c r="E32" s="3"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="25"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
@@ -1039,7 +1070,7 @@
       <c r="D33" s="12"/>
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="25"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
@@ -1048,7 +1079,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="3"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="25"/>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
@@ -1057,7 +1088,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="3"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="25"/>
+      <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
@@ -1066,7 +1097,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="25"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
@@ -1075,7 +1106,7 @@
       <c r="D37" s="10"/>
       <c r="E37" s="3"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="25"/>
+      <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
@@ -1084,7 +1115,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="3"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="25"/>
+      <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
@@ -1093,7 +1124,7 @@
       <c r="D39" s="2"/>
       <c r="E39" s="3"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="25"/>
+      <c r="G39" s="24"/>
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
@@ -1102,7 +1133,7 @@
       <c r="D40" s="10"/>
       <c r="E40" s="3"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="25"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
@@ -1111,7 +1142,7 @@
       <c r="D41" s="12"/>
       <c r="E41" s="3"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="25"/>
+      <c r="G41" s="24"/>
     </row>
     <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
@@ -1120,16 +1151,34 @@
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
       <c r="F42" s="13"/>
-      <c r="G42" s="25"/>
+      <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="27"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="26"/>
+    </row>
+    <row r="44" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+    </row>
+    <row r="45" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DC5DD5-01B6-4D5D-AF87-B8F0E4510DB2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A006AC-1708-4E79-895E-D2EC7B42AF9F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A967B6E2-7F77-4690-A937-D71849A1AE83}"/>
   </bookViews>
@@ -58,7 +58,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,11 +70,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -92,9 +87,46 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -123,92 +155,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -231,17 +183,6 @@
         <color rgb="FFD9D9D9"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -271,17 +212,6 @@
       <right style="thin">
         <color rgb="FFD9D9D9"/>
       </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -294,6 +224,167 @@
       <top/>
       <bottom style="thin">
         <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFE1A16C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE1A16C"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
       </bottom>
       <diagonal/>
     </border>
@@ -309,7 +400,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -318,97 +409,109 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,9 +521,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE1A16C"/>
       <color rgb="FFFEF1E6"/>
       <color rgb="FFD9D9D9"/>
-      <color rgb="FFE1A16C"/>
       <color rgb="FFFDC689"/>
     </mruColors>
   </colors>
@@ -732,7 +835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80A0C24-7431-430F-9021-A877E1BD9DCC}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -743,42 +846,42 @@
     <col min="2" max="2" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
-    </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="str">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="8"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -786,19 +889,19 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="23"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="24"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -806,126 +909,126 @@
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="24"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="24"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="24"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="11"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="24"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="11"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="24"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="24"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="24"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="24"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="25"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -933,109 +1036,109 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="23"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="24"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="24"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="3"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="24"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="24"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="24"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="25"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="31"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="str">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="37"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -1043,142 +1146,124 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="23"/>
+      <c r="G30" s="19"/>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="3"/>
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="24"/>
+      <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="10"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="3"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="24"/>
+      <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="24"/>
+      <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="24"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="5"/>
       <c r="C35" s="3"/>
       <c r="D35" s="2"/>
       <c r="E35" s="3"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="24"/>
+      <c r="G35" s="14"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="3"/>
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="24"/>
+      <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="10"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="3"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="24"/>
+      <c r="G37" s="14"/>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="5"/>
       <c r="C38" s="3"/>
       <c r="D38" s="2"/>
       <c r="E38" s="3"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="24"/>
+      <c r="G38" s="14"/>
     </row>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="3"/>
       <c r="D39" s="2"/>
       <c r="E39" s="3"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="24"/>
+      <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="10"/>
+      <c r="D40" s="36"/>
       <c r="E40" s="3"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="24"/>
+      <c r="G40" s="14"/>
     </row>
     <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="9"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="12"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="3"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="24"/>
+      <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="3"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="24"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="14"/>
     </row>
     <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="26"/>
-    </row>
-    <row r="44" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-    </row>
-    <row r="45" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1193,5 +1278,6 @@
     <mergeCell ref="A17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A006AC-1708-4E79-895E-D2EC7B42AF9F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BD648A-5D1F-4258-97B0-5E59A238EB6B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A967B6E2-7F77-4690-A937-D71849A1AE83}"/>
   </bookViews>
@@ -58,7 +58,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,35 +86,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -124,6 +95,22 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -392,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
@@ -447,71 +434,65 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,36 +828,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="str">
+      <c r="A3" s="31" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="33"/>
       <c r="G3" s="34"/>
     </row>
@@ -893,11 +874,11 @@
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="35"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="36"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -913,7 +894,7 @@
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="36"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
@@ -922,56 +903,56 @@
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
-      <c r="B8" s="36"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="36"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="B9" s="36"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="37"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="36"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="37"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="36"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="38"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="36"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="38"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="36"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="39"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -995,37 +976,37 @@
       <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="32"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1040,47 +1021,47 @@
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="35"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="36"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="35"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="36"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="40"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="35"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="38"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="3"/>
       <c r="F22" s="2"/>
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="35"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="38"/>
+      <c r="F23" s="24"/>
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="35"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="39"/>
+      <c r="F24" s="24"/>
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1104,38 +1085,38 @@
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="26"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="str">
+      <c r="A29" s="31" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="39"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -1150,7 +1131,7 @@
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="B31" s="41"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="3"/>
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
@@ -1159,29 +1140,29 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="B32" s="35"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="36"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="3"/>
       <c r="F32" s="2"/>
       <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="35"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="38"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
       <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="B34" s="35"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="39"/>
+      <c r="F34" s="24"/>
       <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1195,7 +1176,7 @@
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="B36" s="41"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="3"/>
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
@@ -1204,9 +1185,9 @@
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="B37" s="35"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="36"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="3"/>
       <c r="F37" s="7"/>
       <c r="G37" s="14"/>
@@ -1222,7 +1203,7 @@
     </row>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
-      <c r="B39" s="41"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="3"/>
       <c r="D39" s="2"/>
       <c r="E39" s="3"/>
@@ -1231,29 +1212,29 @@
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
-      <c r="B40" s="36"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="36"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="3"/>
       <c r="F40" s="2"/>
       <c r="G40" s="14"/>
     </row>
     <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="B41" s="35"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="38"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="3"/>
       <c r="F41" s="6"/>
       <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
-      <c r="B42" s="35"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="3"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="39"/>
+      <c r="F42" s="24"/>
       <c r="G42" s="14"/>
     </row>
     <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BD648A-5D1F-4258-97B0-5E59A238EB6B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B21E12D-6445-496B-97AE-9D536805CA1C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A967B6E2-7F77-4690-A937-D71849A1AE83}"/>
   </bookViews>
@@ -142,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -363,9 +363,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FFE1A16C"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFE1A16C"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1A16C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color rgb="FFE1A16C"/>
@@ -379,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
@@ -473,26 +484,29 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,16 +864,16 @@
       <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="str">
+      <c r="A3" s="38" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -979,23 +993,23 @@
       <c r="A16" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
@@ -1006,7 +1020,7 @@
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="39"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1116,7 +1130,7 @@
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="39"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -1254,9 +1268,9 @@
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B21E12D-6445-496B-97AE-9D536805CA1C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA214F23-4C75-4B18-B12A-30F1B9335763}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A967B6E2-7F77-4690-A937-D71849A1AE83}"/>
   </bookViews>
@@ -142,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -229,168 +229,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE1A16C"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
@@ -457,56 +300,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,38 +646,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="str">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -980,7 +784,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="17"/>
@@ -990,37 +794,37 @@
       <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1089,7 +893,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -1099,38 +903,38 @@
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
       <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-    </row>
-    <row r="29" spans="1:7" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="str">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_Q_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA214F23-4C75-4B18-B12A-30F1B9335763}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C90FEFC-E79F-E342-84BB-E7AF5382B82C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A967B6E2-7F77-4690-A937-D71849A1AE83}"/>
+    <workbookView xWindow="440" yWindow="460" windowWidth="19040" windowHeight="9720" xr2:uid="{A967B6E2-7F77-4690-A937-D71849A1AE83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>State-to-State Consulting</t>
   </si>
@@ -49,6 +48,30 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating expenses: </t>
+  </si>
+  <si>
+    <t>Total operating expenses</t>
+  </si>
+  <si>
+    <t>Net income</t>
+  </si>
+  <si>
+    <t>Retained earnings, June 1, 2019</t>
+  </si>
+  <si>
+    <t>Retained earnings, June 30, 2019</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>Stockholders' Equity</t>
   </si>
 </sst>
 </file>
@@ -58,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +134,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -233,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
@@ -288,29 +319,38 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,49 +677,49 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="str">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -690,16 +730,16 @@
       <c r="F4" s="2"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
-      <c r="B5" s="20"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="24"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -710,70 +750,76 @@
       <c r="F6" s="2"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
-      <c r="B7" s="21"/>
+      <c r="B7" s="26" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
-      <c r="B8" s="21"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="24"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" s="21"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="24"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
-      <c r="B10" s="21"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="24"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
-      <c r="B11" s="21"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="24"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
-      <c r="B12" s="21"/>
+      <c r="B12" s="26" t="s">
+        <v>7</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="24"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="24"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
         <v>5</v>
@@ -784,7 +830,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="17"/>
@@ -793,40 +839,40 @@
       <c r="F15" s="18"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
         <v>5</v>
@@ -837,52 +883,56 @@
       <c r="F19" s="2"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
-      <c r="B20" s="20"/>
+      <c r="B20" s="25" t="s">
+        <v>9</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="24"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
-      <c r="B21" s="20"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="24"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="22"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
-      <c r="B22" s="20"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="24"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="3"/>
       <c r="F22" s="2"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
-      <c r="B23" s="20"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="24"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
-      <c r="B24" s="20"/>
+      <c r="B24" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="24"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
         <v>5</v>
@@ -893,7 +943,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -902,41 +952,41 @@
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+    <row r="27" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="str">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="1" t="s">
         <v>5</v>
@@ -947,43 +997,45 @@
       <c r="F30" s="2"/>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
-      <c r="B31" s="23"/>
+      <c r="B31" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
       <c r="F31" s="2"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
-      <c r="B32" s="20"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="24"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="3"/>
       <c r="F32" s="2"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
-      <c r="B33" s="20"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="24"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
-      <c r="B34" s="20"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="24"/>
+      <c r="F34" s="28"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="5"/>
       <c r="C35" s="3"/>
@@ -992,25 +1044,27 @@
       <c r="F35" s="6"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
-      <c r="B36" s="23"/>
+      <c r="B36" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="C36" s="3"/>
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
       <c r="F36" s="2"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
-      <c r="B37" s="20"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="24"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="3"/>
       <c r="F37" s="7"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="5"/>
       <c r="C38" s="3"/>
@@ -1019,43 +1073,45 @@
       <c r="F38" s="6"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="C39" s="3"/>
       <c r="D39" s="2"/>
       <c r="E39" s="3"/>
       <c r="F39" s="6"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
-      <c r="B40" s="21"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="24"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="3"/>
       <c r="F40" s="2"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
-      <c r="B41" s="20"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="24"/>
+      <c r="D41" s="28"/>
       <c r="E41" s="3"/>
       <c r="F41" s="6"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
-      <c r="B42" s="20"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="3"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="24"/>
+      <c r="F42" s="28"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_Q_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C90FEFC-E79F-E342-84BB-E7AF5382B82C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8955E536-18AD-4956-9C7B-74B9FEA9E5B6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="460" windowWidth="19040" windowHeight="9720" xr2:uid="{A967B6E2-7F77-4690-A937-D71849A1AE83}"/>
+    <workbookView xWindow="435" yWindow="465" windowWidth="19035" windowHeight="9720" xr2:uid="{A967B6E2-7F77-4690-A937-D71849A1AE83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -264,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
@@ -275,16 +276,7 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -319,12 +311,15 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -334,23 +329,53 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,50 +702,50 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="str">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -728,152 +753,152 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="25"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="26" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="26"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="26"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="26"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="26"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="26" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="26" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-    </row>
-    <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
@@ -881,113 +906,113 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="25" t="s">
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="25"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="25" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="str">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-    </row>
-    <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
@@ -995,132 +1020,133 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="21" t="s">
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="25"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="5"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="21" t="s">
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="25"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="5"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="4"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="21" t="s">
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="29"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="14"/>
-    </row>
-    <row r="41" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="30"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="34"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="30"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="14"/>
-    </row>
-    <row r="43" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="16"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="13"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="A28:G28"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.5_Student_Q_Sheet.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8955E536-18AD-4956-9C7B-74B9FEA9E5B6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC4B89B-F0BD-4C4A-AE67-9E374BCA724C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="465" windowWidth="19035" windowHeight="9720" xr2:uid="{A967B6E2-7F77-4690-A937-D71849A1AE83}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20325" windowHeight="15405" xr2:uid="{A967B6E2-7F77-4690-A937-D71849A1AE83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>State-to-State Consulting</t>
   </si>
@@ -51,7 +51,22 @@
     <t xml:space="preserve">   </t>
   </si>
   <si>
-    <t xml:space="preserve">Operating expenses: </t>
+    <t>Fees earned</t>
+  </si>
+  <si>
+    <t>Operating expenses:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Salary expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Supplies expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Truck expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Miscellaneous expense</t>
   </si>
   <si>
     <t>Total operating expenses</t>
@@ -63,16 +78,43 @@
     <t>Retained earnings, June 1, 2019</t>
   </si>
   <si>
+    <t>Less cash dividends</t>
+  </si>
+  <si>
+    <t>Increase in retained earnings</t>
+  </si>
+  <si>
     <t>Retained earnings, June 30, 2019</t>
   </si>
   <si>
     <t>Assets</t>
   </si>
   <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Accounts receivable</t>
+  </si>
+  <si>
+    <t>Total assets</t>
+  </si>
+  <si>
     <t>Liabilities</t>
   </si>
   <si>
+    <t>Accounts payable</t>
+  </si>
+  <si>
     <t>Stockholders' Equity</t>
+  </si>
+  <si>
+    <t>Common stock</t>
+  </si>
+  <si>
+    <t>Retained earnings</t>
+  </si>
+  <si>
+    <t>Total liabilities and stockholders' equity</t>
   </si>
 </sst>
 </file>
@@ -265,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
@@ -311,6 +353,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -320,6 +365,27 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -328,54 +394,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,8 +404,8 @@
   <colors>
     <mruColors>
       <color rgb="FFE1A16C"/>
+      <color rgb="FFD9D9D9"/>
       <color rgb="FFFEF1E6"/>
-      <color rgb="FFD9D9D9"/>
       <color rgb="FFFDC689"/>
     </mruColors>
   </colors>
@@ -701,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80A0C24-7431-430F-9021-A877E1BD9DCC}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,38 +729,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="str">
+      <c r="A3" s="28" t="str">
         <f ca="1">"For the Month Ended June 30, "&amp;YEAR(TODAY())</f>
         <v>For the Month Ended June 30, 2019</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -757,91 +775,101 @@
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="28"/>
+      <c r="B5" s="19" t="s">
+        <v>6</v>
+      </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="23"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="19" t="s">
-        <v>6</v>
+      <c r="B7" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="23"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="27"/>
+      <c r="B8" s="20" t="s">
+        <v>8</v>
+      </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="27"/>
+      <c r="B9" s="20" t="s">
+        <v>9</v>
+      </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="23"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="27"/>
+      <c r="B10" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="23"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="27"/>
+      <c r="B11" s="20" t="s">
+        <v>11</v>
+      </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="23"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="19" t="s">
-        <v>7</v>
+      <c r="B12" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="26"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="19" t="s">
-        <v>8</v>
+      <c r="B13" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -865,37 +893,37 @@
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
     </row>
     <row r="18" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -910,51 +938,57 @@
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="18" t="s">
-        <v>9</v>
+      <c r="B20" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="28"/>
+      <c r="B21" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="29"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="28"/>
+      <c r="B22" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="23"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="28"/>
+      <c r="B23" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="26"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="18" t="s">
-        <v>10</v>
+      <c r="B24" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="26"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -978,38 +1012,38 @@
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="28" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="21"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="str">
+      <c r="A29" s="28" t="str">
         <f ca="1">"June 30, "&amp;YEAR(TODAY())</f>
         <v>June 30, 2019</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
@@ -1024,8 +1058,8 @@
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="17" t="s">
-        <v>11</v>
+      <c r="B31" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="2"/>
@@ -1035,29 +1069,35 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="28"/>
+      <c r="B32" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="24"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
       <c r="F32" s="23"/>
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="28"/>
+      <c r="B33" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="30"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="24"/>
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="28"/>
+      <c r="B34" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="26"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="27"/>
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1065,28 +1105,30 @@
       <c r="B35" s="4"/>
       <c r="C35" s="3"/>
       <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="31"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="25"/>
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="17" t="s">
-        <v>12</v>
+      <c r="B36" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="23"/>
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="28"/>
+      <c r="B37" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="32"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="26"/>
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1094,46 +1136,52 @@
       <c r="B38" s="4"/>
       <c r="C38" s="3"/>
       <c r="D38" s="23"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="31"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="25"/>
       <c r="G38" s="11"/>
     </row>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="17" t="s">
-        <v>13</v>
+      <c r="B39" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="31"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="25"/>
       <c r="G39" s="11"/>
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="33"/>
+      <c r="B40" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="24"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="22"/>
       <c r="F40" s="23"/>
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="34"/>
+      <c r="B41" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="31"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="25"/>
       <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="34"/>
+      <c r="B42" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="C42" s="3"/>
       <c r="D42" s="23"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="26"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="27"/>
       <c r="G42" s="11"/>
     </row>
     <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1146,7 +1194,6 @@
       <c r="G43" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="A28:G28"/>
